--- a/src/main/resources/xlsx/analysis/stat_ow_yjs_info.xlsx
+++ b/src/main/resources/xlsx/analysis/stat_ow_yjs_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\owip\src\main\resources\xlsx\party\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\owip\src\main\resources\xlsx\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FADAB8C-68E5-49EA-8C8E-0BB5FCE8561C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C73B1C-54BA-429C-A3A4-E1BD35D5896A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,6 +404,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -416,17 +419,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,7 +769,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -787,31 +787,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -860,14 +860,14 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -895,23 +895,22 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="A8:J8"/>
     <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
